--- a/divvy_bike/documentation/changelog.xlsx
+++ b/divvy_bike/documentation/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangchieh/Project/divvy_bike/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8D1B9E-8950-AB4C-BF78-9DE0B455D7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD67E0-529F-DA4B-B0B1-23C35B963182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E04BB9B5-CB38-3B4F-9DFF-07046471274B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Data information</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>divvy bike dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://divvy-tripdata.s3.amazonaws.com/index.html</t>
   </si>
   <si>
@@ -83,6 +79,171 @@
   </si>
   <si>
     <t>Reason for change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divvy bike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate the distance between start and end station based on gps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may need for further analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add column:
+ride distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add column:
+ride_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate the length of the ride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add column:
+day_of_week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add column:
+is_holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add column:
+work_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine if it's work day
+1: work day 0: not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine if it's holiday
+1: holiday 0: not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add column:
+rush_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine the day of week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data cleaning step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data cleaning steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data transformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformation performed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason for transformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine if it's rush hour
+1: rush hour 0: not 
+rush hour: 7-9 or 16-18 on work day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">transform ride_length into four categories:
+very short trip, short trip. medium trip, long trip </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign to 4 groups make analysis of user behavior easier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add column:
+speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate the speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combine last 12 months data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check the type of every column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic data validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced data validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check if there are two stations with same id but different names and change the id if they are indeed different stations by calculating their distance &gt; 0.5km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle missing value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For missing latitude and longitude I created a dictionary of each station and their location, if matched then fill the missing values.
+For missing station names I used the same dictionary but with location as key and station as value to find matches to fill the missing values.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing data handling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/8/11-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Missing data handling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill the missing value with current matched values</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,6 +251,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -107,31 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -144,28 +283,41 @@
       <b/>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="16"/>
       <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -205,35 +357,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,21 +799,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02D3216-5C29-224A-9C82-8D12E3857099}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="50">
+    <row r="1" spans="1:4" ht="47">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -573,69 +821,348 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="34">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="31">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="27">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="26">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45148</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45152</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+    </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="31">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="26">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66">
+      <c r="A9" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44">
+      <c r="A10" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="44">
+      <c r="A11" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="44">
+      <c r="A12" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="44">
+      <c r="A13" s="6">
+        <v>45152</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="88">
+      <c r="A14" s="6">
+        <v>45152</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="44">
+      <c r="A15" s="6">
+        <v>45152</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="31">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="26">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10">
         <v>45148</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="22">
+      <c r="A20" s="12">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45148</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="66">
+      <c r="A21" s="9">
+        <v>3</v>
+      </c>
+      <c r="B21" s="13">
+        <v>45148</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22">
+      <c r="A22" s="9">
+        <v>4</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="31">
+      <c r="A24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="27">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="220">
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="16">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="31">
+      <c r="A28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" ht="54">
+      <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="132">
+      <c r="A30" s="6">
         <v>45152</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/divvy_bike/documentation/changelog.xlsx
+++ b/divvy_bike/documentation/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangchieh/Project/divvy_bike/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD67E0-529F-DA4B-B0B1-23C35B963182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A6C6D7-D241-0949-9E3F-69C8BFEB1E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E04BB9B5-CB38-3B4F-9DFF-07046471274B}"/>
   </bookViews>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02D3216-5C29-224A-9C82-8D12E3857099}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -935,13 +935,13 @@
     </row>
     <row r="12" spans="1:4" ht="44">
       <c r="A12" s="6">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -949,41 +949,41 @@
     </row>
     <row r="13" spans="1:4" ht="44">
       <c r="A13" s="6">
-        <v>45152</v>
+        <v>45151</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="88">
+    <row r="14" spans="1:4" ht="44">
       <c r="A14" s="6">
         <v>45152</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="44">
+    <row r="15" spans="1:4" ht="88">
       <c r="A15" s="6">
         <v>45152</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
